--- a/sessions/session1/session1_practice2.xlsx
+++ b/sessions/session1/session1_practice2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\excel-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34C763F-4C2F-484D-B0D5-B2E0D4DA746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CD9FDF-28D1-479D-88B7-326FFD2DFDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23670" yWindow="780" windowWidth="21622" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="penguins" sheetId="1" r:id="rId1"/>
@@ -609,9 +609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -649,7 +649,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -755,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,7 +897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,9 +911,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>14</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>14</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>14</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>14</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>14</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>14</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>14</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>14</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>14</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>14</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>14</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>14</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>14</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>14</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>14</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>14</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>14</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>14</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>14</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>14</v>
       </c>
